--- a/005-formatacao/24-formatacaoCondicional-comFormulas.xlsx
+++ b/005-formatacao/24-formatacaoCondicional-comFormulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55219\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\hashtag\hashtagExcel\005-formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911C0854-87F3-4DC0-88F8-15C12CB36AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5523A76A-F023-43AF-B9BC-66323500D204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{42A226BC-69FF-4E1F-AF6F-5464E52F4861}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42A226BC-69FF-4E1F-AF6F-5464E52F4861}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Cliente</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Vencido?</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,18 +133,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -454,16 +466,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.899999999999999">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -473,9 +485,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.899999999999999">
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -485,8 +499,12 @@
       <c r="C2" s="2">
         <v>45112</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.899999999999999">
+      <c r="E2" s="5" t="b">
+        <f ca="1">C2&lt;TODAY()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -496,8 +514,12 @@
       <c r="C3" s="2">
         <v>45109</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.899999999999999">
+      <c r="E3" s="5" t="b">
+        <f t="shared" ref="E3:E10" ca="1" si="0">C3&lt;TODAY()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -507,8 +529,12 @@
       <c r="C4" s="2">
         <v>45105</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.899999999999999">
+      <c r="E4" s="5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -518,8 +544,12 @@
       <c r="C5" s="2">
         <v>45117</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.899999999999999">
+      <c r="E5" s="5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -527,10 +557,14 @@
         <v>1668</v>
       </c>
       <c r="C6" s="2">
-        <v>45148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.899999999999999">
+        <v>45209</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -540,8 +574,12 @@
       <c r="C7" s="2">
         <v>45140</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.899999999999999">
+      <c r="E7" s="5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -551,8 +589,12 @@
       <c r="C8" s="2">
         <v>45111</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.899999999999999">
+      <c r="E8" s="5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -562,8 +604,12 @@
       <c r="C9" s="2">
         <v>45105</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.899999999999999">
+      <c r="E9" s="5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -571,10 +617,19 @@
         <v>1477</v>
       </c>
       <c r="C10" s="2">
-        <v>45164</v>
+        <v>45174</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>C2&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>